--- a/excels/Core/Trad PHB.xlsx
+++ b/excels/Core/Trad PHB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2987BFB-92BC-49F2-B6CD-F84AD2492C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="damageType" sheetId="20" r:id="rId3"/>
     <sheet name="baseitem" sheetId="4" r:id="rId4"/>
     <sheet name="item" sheetId="3" r:id="rId5"/>
-    <sheet name="variant" sheetId="15" r:id="rId6"/>
+    <sheet name="magicvariant" sheetId="15" r:id="rId6"/>
     <sheet name="itemGroup" sheetId="5" r:id="rId7"/>
     <sheet name="action" sheetId="7" r:id="rId8"/>
     <sheet name="condition" sheetId="6" r:id="rId9"/>
@@ -39,9 +45,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">item!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">itemGroup!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">language!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">magicvariant!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">skills!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">spell!$B$1:$C$362</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">variant!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -7940,7 +7946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7995,7 +8001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -8021,13 +8027,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8036,12 +8041,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8083,7 +8091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8116,9 +8124,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8151,6 +8176,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8326,24 +8368,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>575</v>
@@ -8378,7 +8420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8432,7 +8474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>144</v>
       </c>
@@ -8446,7 +8488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>146</v>
       </c>
@@ -8460,7 +8502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -8474,7 +8516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>148</v>
       </c>
@@ -8488,7 +8530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>149</v>
       </c>
@@ -8502,7 +8544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -8519,7 +8561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>152</v>
       </c>
@@ -8533,7 +8575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>154</v>
       </c>
@@ -8547,11 +8589,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -8571,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>156</v>
       </c>
@@ -8585,7 +8627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -8602,7 +8644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -8619,7 +8661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -8647,7 +8689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>162</v>
       </c>
@@ -8661,7 +8703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -8675,7 +8717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>164</v>
       </c>
@@ -8717,7 +8759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>169</v>
       </c>
@@ -8767,7 +8809,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -8798,7 +8840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>177</v>
       </c>
@@ -8812,7 +8854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -8829,7 +8871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>179</v>
       </c>
@@ -8843,7 +8885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
@@ -8857,7 +8899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>181</v>
       </c>
@@ -8871,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -8908,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>183</v>
       </c>
@@ -8922,7 +8964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -8939,7 +8981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>193</v>
       </c>
@@ -8953,7 +8995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +9012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>195</v>
       </c>
@@ -8998,7 +9040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>199</v>
       </c>
@@ -9012,7 +9054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>38</v>
       </c>
@@ -9040,7 +9082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>203</v>
       </c>
@@ -9054,7 +9096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>39</v>
       </c>
@@ -9068,7 +9110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>205</v>
       </c>
@@ -9082,7 +9124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -9093,7 +9135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -9104,7 +9146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -9115,7 +9157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -9126,7 +9168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -9148,7 +9190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -9159,7 +9201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
@@ -9170,7 +9212,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -9181,7 +9223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -9192,7 +9234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -9203,7 +9245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -9214,7 +9256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -9225,7 +9267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -9269,7 +9311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -9291,7 +9333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -9302,7 +9344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -9335,7 +9377,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -9346,7 +9388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -9390,7 +9432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>100</v>
       </c>
@@ -9401,7 +9443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -9412,7 +9454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -9423,7 +9465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
@@ -9434,7 +9476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9487,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -9456,7 +9498,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -9467,7 +9509,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -9478,7 +9520,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9542,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -9511,7 +9553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -9522,7 +9564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -9544,7 +9586,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -9555,7 +9597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
@@ -9566,7 +9608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -9639,20 +9681,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -9660,7 +9702,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2610</v>
       </c>
@@ -9668,7 +9710,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2612</v>
       </c>
@@ -9684,7 +9726,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2616</v>
       </c>
@@ -9692,7 +9734,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2618</v>
       </c>
@@ -9714,22 +9756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="43.375" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -9738,7 +9780,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>775</v>
       </c>
@@ -9746,7 +9788,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>776</v>
       </c>
@@ -9762,7 +9804,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>780</v>
       </c>
@@ -9786,7 +9828,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>786</v>
       </c>
@@ -9794,7 +9836,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>788</v>
       </c>
@@ -9802,7 +9844,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>790</v>
       </c>
@@ -9810,7 +9852,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>792</v>
       </c>
@@ -9818,7 +9860,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>793</v>
       </c>
@@ -9826,7 +9868,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>795</v>
       </c>
@@ -9834,7 +9876,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>796</v>
       </c>
@@ -9842,7 +9884,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>798</v>
       </c>
@@ -9850,7 +9892,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>799</v>
       </c>
@@ -9858,7 +9900,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>801</v>
       </c>
@@ -9866,7 +9908,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>805</v>
       </c>
@@ -9883,29 +9925,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="68.125" customWidth="1"/>
-    <col min="5" max="5" width="71.25" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -9914,7 +9956,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1197</v>
       </c>
@@ -9922,7 +9964,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1151</v>
       </c>
@@ -9938,7 +9980,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1396</v>
       </c>
@@ -9946,7 +9988,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1038</v>
       </c>
@@ -9954,7 +9996,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>811</v>
       </c>
@@ -9962,7 +10004,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1305</v>
       </c>
@@ -9970,7 +10012,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>813</v>
       </c>
@@ -9978,7 +10020,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1271</v>
       </c>
@@ -9986,7 +10028,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1345</v>
       </c>
@@ -9994,7 +10036,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1106</v>
       </c>
@@ -10002,7 +10044,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>821</v>
       </c>
@@ -10010,7 +10052,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>823</v>
       </c>
@@ -10026,7 +10068,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1383</v>
       </c>
@@ -10034,7 +10076,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1034</v>
       </c>
@@ -10042,7 +10084,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1424</v>
       </c>
@@ -10058,7 +10100,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>837</v>
       </c>
@@ -10066,7 +10108,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1222</v>
       </c>
@@ -10074,7 +10116,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1301</v>
       </c>
@@ -10082,7 +10124,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>819</v>
       </c>
@@ -10090,7 +10132,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1307</v>
       </c>
@@ -10098,7 +10140,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>843</v>
       </c>
@@ -10106,7 +10148,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>847</v>
       </c>
@@ -12803,8 +12845,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C362">
-    <sortState ref="B2:C362">
+  <autoFilter ref="B1:C362" xr:uid="{00000000-0009-0000-0000-00000B000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C362">
       <sortCondition ref="B1:B362"/>
     </sortState>
   </autoFilter>
@@ -12814,51 +12856,51 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:AV12"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="8.25" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="7.25" customWidth="1"/>
-    <col min="23" max="23" width="16.75" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="18.125" customWidth="1"/>
-    <col min="32" max="32" width="14.5" customWidth="1"/>
-    <col min="34" max="34" width="8.75" customWidth="1"/>
-    <col min="35" max="35" width="18.375" customWidth="1"/>
-    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
     <col min="38" max="38" width="10" customWidth="1"/>
-    <col min="39" max="39" width="15.75" customWidth="1"/>
-    <col min="40" max="40" width="17.375" customWidth="1"/>
-    <col min="43" max="43" width="21.375" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" customWidth="1"/>
     <col min="44" max="44" width="20" customWidth="1"/>
-    <col min="47" max="47" width="23.75" customWidth="1"/>
-    <col min="48" max="48" width="21.875" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" customWidth="1"/>
+    <col min="48" max="48" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13194,6 @@
       <c r="P6" t="s">
         <v>1610</v>
       </c>
-      <c r="AQ6" s="11"/>
       <c r="AU6" t="s">
         <v>2390</v>
       </c>
@@ -13257,41 +13298,41 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:AV38"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="28.625" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="23.875" customWidth="1"/>
-    <col min="19" max="19" width="24.875" customWidth="1"/>
-    <col min="20" max="20" width="24.125" customWidth="1"/>
-    <col min="23" max="23" width="32.5" customWidth="1"/>
-    <col min="24" max="24" width="31.625" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
-    <col min="28" max="28" width="24.75" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="41.125" customWidth="1"/>
-    <col min="32" max="32" width="44.375" customWidth="1"/>
-    <col min="35" max="35" width="27.75" customWidth="1"/>
-    <col min="36" max="36" width="24.875" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" customWidth="1"/>
+    <col min="31" max="31" width="41.140625" customWidth="1"/>
+    <col min="32" max="32" width="44.42578125" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" customWidth="1"/>
+    <col min="36" max="36" width="24.85546875" customWidth="1"/>
     <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="39" width="23.25" customWidth="1"/>
-    <col min="40" max="40" width="24.25" customWidth="1"/>
-    <col min="43" max="43" width="27.75" customWidth="1"/>
+    <col min="39" max="39" width="23.28515625" customWidth="1"/>
+    <col min="40" max="40" width="24.28515625" customWidth="1"/>
+    <col min="43" max="43" width="27.7109375" customWidth="1"/>
     <col min="44" max="44" width="26" customWidth="1"/>
-    <col min="47" max="47" width="25.375" customWidth="1"/>
-    <col min="48" max="48" width="18.25" customWidth="1"/>
+    <col min="47" max="47" width="25.42578125" customWidth="1"/>
+    <col min="48" max="48" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" x14ac:dyDescent="0.25">
@@ -14352,41 +14393,41 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:AV55"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="11" max="11" width="44.625" customWidth="1"/>
-    <col min="12" max="12" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="20.125" customWidth="1"/>
-    <col min="19" max="19" width="34.875" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" customWidth="1"/>
     <col min="20" max="20" width="31" customWidth="1"/>
     <col min="23" max="23" width="29" customWidth="1"/>
-    <col min="24" max="24" width="24.75" customWidth="1"/>
-    <col min="27" max="27" width="34.875" customWidth="1"/>
-    <col min="28" max="28" width="32.125" customWidth="1"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="24.875" customWidth="1"/>
-    <col min="32" max="32" width="24.5" customWidth="1"/>
-    <col min="35" max="35" width="20.25" customWidth="1"/>
-    <col min="36" max="36" width="19.625" customWidth="1"/>
-    <col min="38" max="38" width="10.125" customWidth="1"/>
-    <col min="39" max="39" width="21.5" customWidth="1"/>
-    <col min="40" max="40" width="18.5" customWidth="1"/>
-    <col min="43" max="43" width="21.75" customWidth="1"/>
-    <col min="44" max="44" width="20.625" customWidth="1"/>
-    <col min="47" max="47" width="27.25" customWidth="1"/>
-    <col min="48" max="48" width="23.125" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" customWidth="1"/>
+    <col min="27" max="27" width="34.85546875" customWidth="1"/>
+    <col min="28" max="28" width="32.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" customWidth="1"/>
+    <col min="32" max="32" width="24.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.28515625" customWidth="1"/>
+    <col min="36" max="36" width="19.5703125" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="21.7109375" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" customWidth="1"/>
+    <col min="48" max="48" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" x14ac:dyDescent="0.25">
@@ -14760,13 +14801,13 @@
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>1770</v>
       </c>
       <c r="D7" t="s">
         <v>1757</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>1820</v>
       </c>
       <c r="H7" t="s">
@@ -14793,7 +14834,7 @@
       <c r="W7" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" t="s">
         <v>2129</v>
       </c>
       <c r="AB7" t="s">
@@ -14884,7 +14925,7 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>1771</v>
       </c>
       <c r="D9" t="s">
@@ -14955,7 +14996,7 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="C10" t="s">
         <v>1772</v>
       </c>
       <c r="D10" t="s">
@@ -15023,7 +15064,7 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>1526</v>
       </c>
       <c r="D11" t="s">
@@ -15094,7 +15135,7 @@
       </c>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="C12" t="s">
         <v>1773</v>
       </c>
       <c r="D12" t="s">
@@ -15147,13 +15188,13 @@
       </c>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
+      <c r="C13" t="s">
         <v>1774</v>
       </c>
       <c r="D13" t="s">
         <v>1762</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" t="s">
         <v>1825</v>
       </c>
       <c r="H13" t="s">
@@ -15206,7 +15247,7 @@
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" t="s">
         <v>1775</v>
       </c>
       <c r="D14" t="s">
@@ -15261,8 +15302,8 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>1776</v>
       </c>
       <c r="D15" t="s">
@@ -15318,7 +15359,7 @@
       </c>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>1777</v>
       </c>
       <c r="D16" t="s">
@@ -15345,7 +15386,7 @@
       <c r="X16" t="s">
         <v>1719</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AA16" t="s">
         <v>2123</v>
       </c>
       <c r="AB16" t="s">
@@ -15371,7 +15412,7 @@
       </c>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
+      <c r="C17" t="s">
         <v>1778</v>
       </c>
       <c r="D17" t="s">
@@ -15402,7 +15443,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
         <v>1541</v>
       </c>
@@ -15460,7 +15501,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="K20" t="s">
@@ -15485,7 +15526,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>1883</v>
       </c>
@@ -15548,7 +15589,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>1885</v>
       </c>
@@ -15586,7 +15627,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
         <v>1543</v>
       </c>
@@ -15643,7 +15684,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>1891</v>
       </c>
@@ -15657,7 +15698,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>1892</v>
       </c>
@@ -15671,7 +15712,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="K31" t="s">
         <v>1874</v>
@@ -15686,7 +15727,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>1893</v>
       </c>
@@ -15697,7 +15738,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="33" spans="11:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K33" s="10" t="s">
         <v>1894</v>
       </c>
@@ -15708,7 +15749,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="34" spans="11:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>1580</v>
       </c>
@@ -15722,7 +15763,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="35" spans="11:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>1817</v>
       </c>
@@ -15736,7 +15777,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="36" spans="11:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:48" ht="14.25" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>1899</v>
       </c>
@@ -15930,30 +15971,30 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:X38"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
-    <col min="11" max="11" width="30.5" customWidth="1"/>
-    <col min="12" max="12" width="25.75" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="22.125" customWidth="1"/>
-    <col min="16" max="16" width="20.75" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="21.75" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="32.125" customWidth="1"/>
-    <col min="24" max="24" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="32.140625" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
@@ -15990,20 +16031,20 @@
       <c r="V2" s="10" t="s">
         <v>2268</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>2307</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>1995</v>
       </c>
       <c r="D3" t="s">
         <v>1990</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>1671</v>
       </c>
       <c r="H3" t="s">
@@ -16015,7 +16056,7 @@
       <c r="L3" t="s">
         <v>1993</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" t="s">
         <v>1995</v>
       </c>
       <c r="P3" t="s">
@@ -16430,7 +16471,7 @@
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>2035</v>
       </c>
       <c r="D20" t="s">
@@ -16444,7 +16485,7 @@
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
+      <c r="C21" t="s">
         <v>2036</v>
       </c>
       <c r="D21" t="s">
@@ -16458,7 +16499,7 @@
       </c>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
         <v>2037</v>
       </c>
       <c r="D22" t="s">
@@ -16472,7 +16513,7 @@
       </c>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
+      <c r="C23" t="s">
         <v>2038</v>
       </c>
       <c r="D23" t="s">
@@ -16486,7 +16527,7 @@
       </c>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+      <c r="C24" t="s">
         <v>2039</v>
       </c>
       <c r="D24" t="s">
@@ -16500,7 +16541,7 @@
       </c>
     </row>
     <row r="25" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
+      <c r="C25" t="s">
         <v>2040</v>
       </c>
       <c r="D25" t="s">
@@ -16621,20 +16662,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -16658,7 +16699,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2457</v>
       </c>
@@ -16666,7 +16707,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2458</v>
       </c>
@@ -16682,7 +16723,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2463</v>
       </c>
@@ -16698,7 +16739,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2466</v>
       </c>
@@ -16706,7 +16747,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2468</v>
       </c>
@@ -16714,7 +16755,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2470</v>
       </c>
@@ -16722,7 +16763,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2472</v>
       </c>
@@ -16730,7 +16771,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2474</v>
       </c>
@@ -16754,7 +16795,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2480</v>
       </c>
@@ -16762,7 +16803,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2482</v>
       </c>
@@ -16770,7 +16811,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2484</v>
       </c>
@@ -16778,7 +16819,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2486</v>
       </c>
@@ -16787,26 +16828,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -16814,7 +16855,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2487</v>
       </c>
@@ -16822,7 +16863,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2529</v>
       </c>
@@ -16830,7 +16871,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2530</v>
       </c>
@@ -16838,7 +16879,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2531</v>
       </c>
@@ -16846,7 +16887,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2532</v>
       </c>
@@ -16854,7 +16895,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2533</v>
       </c>
@@ -16862,7 +16903,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2534</v>
       </c>
@@ -16870,7 +16911,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2535</v>
       </c>
@@ -16878,7 +16919,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2536</v>
       </c>
@@ -16886,7 +16927,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2537</v>
       </c>
@@ -16894,7 +16935,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2538</v>
       </c>
@@ -16902,7 +16943,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2539</v>
       </c>
@@ -16910,7 +16951,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2540</v>
       </c>
@@ -16918,7 +16959,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2541</v>
       </c>
@@ -16926,7 +16967,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2542</v>
       </c>
@@ -16942,7 +16983,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2544</v>
       </c>
@@ -16950,7 +16991,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2545</v>
       </c>
@@ -16966,7 +17007,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2548</v>
       </c>
@@ -16974,7 +17015,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2547</v>
       </c>
@@ -16982,7 +17023,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2549</v>
       </c>
@@ -16990,7 +17031,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2550</v>
       </c>
@@ -16998,7 +17039,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2551</v>
       </c>
@@ -17156,29 +17197,29 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="16.350000000000001" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>2580</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:6" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>575</v>
       </c>
@@ -17188,7 +17229,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2571</v>
       </c>
@@ -17196,7 +17237,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2573</v>
       </c>
@@ -17204,7 +17245,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2575</v>
       </c>
@@ -17220,7 +17261,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2579</v>
       </c>
@@ -17235,19 +17276,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -17403,8 +17444,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
-  <sortState ref="H2:H19">
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H19">
     <sortCondition ref="H2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17413,20 +17454,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -17440,20 +17481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -17461,17 +17502,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2606</v>
       </c>
@@ -17482,17 +17523,17 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
   </cols>
   <sheetData/>
@@ -17501,17 +17542,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -17611,8 +17652,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C8">
-    <sortState ref="B2:C12">
+  <autoFilter ref="B1:C8" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C12">
       <sortCondition ref="C1:C8"/>
     </sortState>
   </autoFilter>
@@ -17621,22 +17662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -17645,7 +17686,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>577</v>
       </c>
@@ -17653,7 +17694,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>579</v>
       </c>
@@ -17661,7 +17702,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>581</v>
       </c>
@@ -17669,7 +17710,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>583</v>
       </c>
@@ -17677,7 +17718,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>585</v>
       </c>
@@ -17685,7 +17726,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>587</v>
       </c>
@@ -17693,7 +17734,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>589</v>
       </c>
@@ -17701,7 +17742,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>591</v>
       </c>
@@ -17709,7 +17750,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>771</v>
       </c>
@@ -17717,7 +17758,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>594</v>
       </c>
@@ -17725,7 +17766,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>597</v>
       </c>
@@ -17733,7 +17774,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>596</v>
       </c>
@@ -17741,7 +17782,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>600</v>
       </c>
@@ -17749,7 +17790,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>602</v>
       </c>
@@ -17757,7 +17798,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>604</v>
       </c>
@@ -17765,7 +17806,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>606</v>
       </c>
@@ -17773,7 +17814,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>608</v>
       </c>
@@ -17781,7 +17822,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>610</v>
       </c>
@@ -17789,7 +17830,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>612</v>
       </c>
@@ -17805,7 +17846,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>616</v>
       </c>
@@ -17813,7 +17854,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>618</v>
       </c>
@@ -17821,7 +17862,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>620</v>
       </c>
@@ -17829,7 +17870,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>622</v>
       </c>
@@ -17837,7 +17878,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>624</v>
       </c>
@@ -17845,7 +17886,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>631</v>
       </c>
@@ -17853,7 +17894,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>627</v>
       </c>
@@ -17869,7 +17910,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>632</v>
       </c>
@@ -17877,7 +17918,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>634</v>
       </c>
@@ -17885,7 +17926,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>636</v>
       </c>
@@ -17893,7 +17934,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>638</v>
       </c>
@@ -17901,7 +17942,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>640</v>
       </c>
@@ -17909,7 +17950,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>642</v>
       </c>
@@ -17917,7 +17958,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>2607</v>
       </c>
@@ -17925,7 +17966,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>645</v>
       </c>
@@ -17933,7 +17974,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>647</v>
       </c>
@@ -17941,7 +17982,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>649</v>
       </c>
@@ -17949,7 +17990,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>651</v>
       </c>
@@ -18158,8 +18199,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C64">
-    <sortState ref="B2:C64">
+  <autoFilter ref="B1:C64" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C64">
       <sortCondition ref="C1:C64"/>
     </sortState>
   </autoFilter>
@@ -18169,22 +18210,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+    <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="51.25" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -18209,7 +18250,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>210</v>
       </c>
@@ -18217,7 +18258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>213</v>
       </c>
@@ -18233,7 +18274,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1957</v>
       </c>
@@ -18241,7 +18282,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>214</v>
       </c>
@@ -18249,7 +18290,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>216</v>
       </c>
@@ -18257,7 +18298,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>218</v>
       </c>
@@ -18265,7 +18306,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>220</v>
       </c>
@@ -18273,7 +18314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>224</v>
       </c>
@@ -18281,7 +18322,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>225</v>
       </c>
@@ -18289,7 +18330,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>229</v>
       </c>
@@ -18305,7 +18346,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>232</v>
       </c>
@@ -18313,7 +18354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>234</v>
       </c>
@@ -18321,7 +18362,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>236</v>
       </c>
@@ -18329,7 +18370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>238</v>
       </c>
@@ -18337,7 +18378,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>240</v>
       </c>
@@ -18345,7 +18386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>772</v>
       </c>
@@ -18353,7 +18394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>243</v>
       </c>
@@ -18361,7 +18402,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>246</v>
       </c>
@@ -18369,7 +18410,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>248</v>
       </c>
@@ -18377,7 +18418,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>250</v>
       </c>
@@ -18401,7 +18442,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>256</v>
       </c>
@@ -18409,7 +18450,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>257</v>
       </c>
@@ -18417,7 +18458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>260</v>
       </c>
@@ -18425,7 +18466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>262</v>
       </c>
@@ -18433,7 +18474,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>264</v>
       </c>
@@ -18441,7 +18482,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>266</v>
       </c>
@@ -18449,7 +18490,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>268</v>
       </c>
@@ -18457,7 +18498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>270</v>
       </c>
@@ -18473,7 +18514,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>274</v>
       </c>
@@ -18481,7 +18522,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>276</v>
       </c>
@@ -18489,7 +18530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>278</v>
       </c>
@@ -18497,7 +18538,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>280</v>
       </c>
@@ -18505,7 +18546,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1959</v>
       </c>
@@ -18513,7 +18554,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>282</v>
       </c>
@@ -18521,7 +18562,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>283</v>
       </c>
@@ -18537,7 +18578,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>288</v>
       </c>
@@ -18545,7 +18586,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>290</v>
       </c>
@@ -18553,7 +18594,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>292</v>
       </c>
@@ -18569,7 +18610,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>294</v>
       </c>
@@ -18585,7 +18626,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>298</v>
       </c>
@@ -18593,7 +18634,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>300</v>
       </c>
@@ -18601,7 +18642,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>302</v>
       </c>
@@ -18617,7 +18658,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>306</v>
       </c>
@@ -18625,7 +18666,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>308</v>
       </c>
@@ -18633,7 +18674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>310</v>
       </c>
@@ -18641,7 +18682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>144</v>
       </c>
@@ -18665,7 +18706,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>317</v>
       </c>
@@ -18673,7 +18714,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>319</v>
       </c>
@@ -18689,7 +18730,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>322</v>
       </c>
@@ -18705,7 +18746,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>326</v>
       </c>
@@ -18713,7 +18754,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>328</v>
       </c>
@@ -18721,7 +18762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>330</v>
       </c>
@@ -18729,7 +18770,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>331</v>
       </c>
@@ -18737,7 +18778,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>334</v>
       </c>
@@ -18753,7 +18794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>338</v>
       </c>
@@ -18769,7 +18810,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>342</v>
       </c>
@@ -18777,7 +18818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1963</v>
       </c>
@@ -18793,7 +18834,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>346</v>
       </c>
@@ -18801,7 +18842,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>348</v>
       </c>
@@ -18809,7 +18850,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>350</v>
       </c>
@@ -18825,7 +18866,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>354</v>
       </c>
@@ -18833,7 +18874,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>773</v>
       </c>
@@ -18841,7 +18882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>357</v>
       </c>
@@ -18849,7 +18890,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>359</v>
       </c>
@@ -18857,7 +18898,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>361</v>
       </c>
@@ -18865,7 +18906,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -18873,7 +18914,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>365</v>
       </c>
@@ -18881,7 +18922,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>367</v>
       </c>
@@ -18913,7 +18954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>375</v>
       </c>
@@ -18921,7 +18962,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>377</v>
       </c>
@@ -18929,7 +18970,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>379</v>
       </c>
@@ -18937,7 +18978,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>381</v>
       </c>
@@ -18945,7 +18986,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1965</v>
       </c>
@@ -18953,7 +18994,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>383</v>
       </c>
@@ -18961,7 +19002,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>385</v>
       </c>
@@ -18969,7 +19010,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>387</v>
       </c>
@@ -18977,7 +19018,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>389</v>
       </c>
@@ -18985,7 +19026,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>391</v>
       </c>
@@ -18993,7 +19034,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>393</v>
       </c>
@@ -19001,7 +19042,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>395</v>
       </c>
@@ -19009,7 +19050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>397</v>
       </c>
@@ -19017,7 +19058,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>399</v>
       </c>
@@ -19025,7 +19066,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>2623</v>
       </c>
@@ -19041,7 +19082,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>404</v>
       </c>
@@ -19049,7 +19090,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>406</v>
       </c>
@@ -19057,7 +19098,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1967</v>
       </c>
@@ -19065,7 +19106,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>408</v>
       </c>
@@ -19081,7 +19122,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>412</v>
       </c>
@@ -19089,7 +19130,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>414</v>
       </c>
@@ -19097,7 +19138,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>416</v>
       </c>
@@ -19105,7 +19146,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>418</v>
       </c>
@@ -19129,7 +19170,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>424</v>
       </c>
@@ -19137,7 +19178,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>425</v>
       </c>
@@ -19145,7 +19186,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>428</v>
       </c>
@@ -19153,7 +19194,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>430</v>
       </c>
@@ -19161,7 +19202,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>432</v>
       </c>
@@ -19169,7 +19210,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>434</v>
       </c>
@@ -19177,7 +19218,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>436</v>
       </c>
@@ -19185,7 +19226,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>438</v>
       </c>
@@ -19193,7 +19234,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>440</v>
       </c>
@@ -19201,7 +19242,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>442</v>
       </c>
@@ -19209,7 +19250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>444</v>
       </c>
@@ -19217,7 +19258,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>2624</v>
       </c>
@@ -19225,7 +19266,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>447</v>
       </c>
@@ -19233,7 +19274,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>448</v>
       </c>
@@ -19241,7 +19282,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>2625</v>
       </c>
@@ -19249,7 +19290,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>452</v>
       </c>
@@ -19273,7 +19314,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>458</v>
       </c>
@@ -19281,7 +19322,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>460</v>
       </c>
@@ -19289,7 +19330,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>462</v>
       </c>
@@ -19305,7 +19346,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>2626</v>
       </c>
@@ -19321,7 +19362,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>469</v>
       </c>
@@ -19329,7 +19370,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>471</v>
       </c>
@@ -19337,7 +19378,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>473</v>
       </c>
@@ -19345,7 +19386,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>475</v>
       </c>
@@ -19353,7 +19394,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>477</v>
       </c>
@@ -19369,7 +19410,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>480</v>
       </c>
@@ -19377,7 +19418,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>482</v>
       </c>
@@ -19385,7 +19426,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>484</v>
       </c>
@@ -19401,7 +19442,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>488</v>
       </c>
@@ -19409,7 +19450,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>490</v>
       </c>
@@ -19425,7 +19466,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>494</v>
       </c>
@@ -19433,7 +19474,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>496</v>
       </c>
@@ -19441,7 +19482,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>498</v>
       </c>
@@ -19457,7 +19498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>502</v>
       </c>
@@ -19465,7 +19506,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>504</v>
       </c>
@@ -19473,7 +19514,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>506</v>
       </c>
@@ -19481,7 +19522,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>508</v>
       </c>
@@ -19489,7 +19530,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>510</v>
       </c>
@@ -19497,7 +19538,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>2628</v>
       </c>
@@ -19505,7 +19546,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>513</v>
       </c>
@@ -19513,7 +19554,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>515</v>
       </c>
@@ -19521,7 +19562,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>517</v>
       </c>
@@ -19529,7 +19570,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>519</v>
       </c>
@@ -19537,7 +19578,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>521</v>
       </c>
@@ -19553,7 +19594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>525</v>
       </c>
@@ -19569,7 +19610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>529</v>
       </c>
@@ -19585,7 +19626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>533</v>
       </c>
@@ -19593,7 +19634,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>535</v>
       </c>
@@ -19609,7 +19650,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>539</v>
       </c>
@@ -19617,7 +19658,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>541</v>
       </c>
@@ -19625,7 +19666,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>543</v>
       </c>
@@ -19633,7 +19674,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>545</v>
       </c>
@@ -19649,7 +19690,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>549</v>
       </c>
@@ -19657,7 +19698,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>551</v>
       </c>
@@ -19665,7 +19706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>553</v>
       </c>
@@ -19673,7 +19714,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>554</v>
       </c>
@@ -19681,7 +19722,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>556</v>
       </c>
@@ -19689,7 +19730,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>558</v>
       </c>
@@ -19762,28 +19803,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="188" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -19792,7 +19833,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>226</v>
       </c>
@@ -19808,7 +19849,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1973</v>
       </c>
@@ -19817,28 +19858,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -19847,7 +19888,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>699</v>
       </c>
@@ -19855,7 +19896,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1969</v>
       </c>
@@ -19879,7 +19920,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>706</v>
       </c>
@@ -19887,7 +19928,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>708</v>
       </c>
@@ -19896,29 +19937,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="49.625" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
-    <col min="6" max="6" width="74.375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="74.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -19927,7 +19968,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>739</v>
       </c>
@@ -19936,7 +19977,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>114</v>
       </c>
@@ -19945,7 +19986,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>750</v>
       </c>
@@ -19954,7 +19995,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>751</v>
       </c>
@@ -19963,7 +20004,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>752</v>
       </c>
@@ -19972,7 +20013,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1975</v>
       </c>
@@ -19981,7 +20022,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1978</v>
       </c>
@@ -19990,7 +20031,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>764</v>
       </c>
@@ -19999,7 +20040,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>765</v>
       </c>
@@ -20008,7 +20049,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>766</v>
       </c>
@@ -20017,7 +20058,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>755</v>
       </c>
@@ -20026,7 +20067,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>756</v>
       </c>
@@ -20044,7 +20085,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1976</v>
       </c>
@@ -20053,7 +20094,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>768</v>
       </c>
@@ -20071,7 +20112,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>759</v>
       </c>
@@ -20080,7 +20121,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>769</v>
       </c>
@@ -20089,7 +20130,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>770</v>
       </c>
@@ -20098,7 +20139,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>762</v>
       </c>
@@ -20107,33 +20148,33 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="57.125" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>575</v>
       </c>
@@ -20142,7 +20183,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>710</v>
       </c>
@@ -20151,7 +20192,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>712</v>
       </c>
@@ -20160,7 +20201,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>714</v>
       </c>
@@ -20169,7 +20210,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>716</v>
       </c>
@@ -20178,7 +20219,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>718</v>
       </c>
@@ -20187,7 +20228,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>720</v>
       </c>
@@ -20196,7 +20237,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>722</v>
       </c>
@@ -20205,7 +20246,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>723</v>
       </c>
@@ -20214,7 +20255,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>725</v>
       </c>
@@ -20223,7 +20264,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>727</v>
       </c>
@@ -20232,7 +20273,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>729</v>
       </c>
@@ -20241,7 +20282,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>731</v>
       </c>
@@ -20250,7 +20291,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>733</v>
       </c>
@@ -20259,7 +20300,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>735</v>
       </c>
@@ -20268,7 +20309,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>737</v>
       </c>
@@ -20278,7 +20319,7 @@
       <c r="E16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/Core/Trad PHB.xlsx
+++ b/excels/Core/Trad PHB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2987BFB-92BC-49F2-B6CD-F84AD2492C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE811125-619A-47E2-B639-95D448E17943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17665,8 +17665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18213,7 +18213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
@@ -18730,7 +18730,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>322</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>326</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>328</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>330</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>331</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>334</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>338</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>342</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1963</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>346</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>348</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>350</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>354</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>773</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>357</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>359</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>361</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>365</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>367</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>375</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>377</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>379</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>381</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1965</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>383</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>385</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>387</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>389</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>391</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>393</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>395</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>397</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>399</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>2623</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>404</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>406</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1967</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>408</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>412</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>414</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>416</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>418</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>424</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>425</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>428</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>430</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>432</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>434</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>436</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>438</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>440</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>442</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>444</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>2624</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>447</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>448</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>2625</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>452</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>458</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>460</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>462</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>2626</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>469</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>471</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>473</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>475</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>477</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>480</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>482</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>484</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>488</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>490</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>494</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>496</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>498</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>502</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>504</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>506</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>508</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>510</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>2628</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>513</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>515</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>517</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>519</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>521</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>525</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>529</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>533</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>535</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>539</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>541</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>543</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>545</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>549</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>551</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>553</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>554</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>556</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>558</v>
       </c>

--- a/excels/Core/Trad PHB.xlsx
+++ b/excels/Core/Trad PHB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE811125-619A-47E2-B639-95D448E17943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC586C-6473-45E0-B81C-F2F6EA607325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17665,8 +17665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excels/Core/Trad PHB.xlsx
+++ b/excels/Core/Trad PHB.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC586C-6473-45E0-B81C-F2F6EA607325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392DF85-9719-4470-881D-0F22E95DB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
-    <sheet name="skills" sheetId="11" r:id="rId2"/>
+    <sheet name="skill" sheetId="11" r:id="rId2"/>
     <sheet name="damageType" sheetId="20" r:id="rId3"/>
     <sheet name="baseitem" sheetId="4" r:id="rId4"/>
     <sheet name="item" sheetId="3" r:id="rId5"/>
@@ -34,7 +34,8 @@
     <sheet name="monster" sheetId="18" r:id="rId19"/>
     <sheet name="deity" sheetId="19" r:id="rId20"/>
     <sheet name="table" sheetId="21" r:id="rId21"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId22"/>
+    <sheet name="sense" sheetId="24" r:id="rId22"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">action!$B$1:$C$1</definedName>
@@ -46,7 +47,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">itemGroup!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">language!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">magicvariant!$B$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">skills!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">skill!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">spell!$B$1:$C$362</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="2629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="2633">
   <si>
     <t>Introducción</t>
   </si>
@@ -7941,6 +7942,18 @@
   </si>
   <si>
     <t>Cuerda de seda (50 pies)</t>
+  </si>
+  <si>
+    <t>Blindsight</t>
+  </si>
+  <si>
+    <t>Truesight</t>
+  </si>
+  <si>
+    <t>Visión ciega</t>
+  </si>
+  <si>
+    <t>Visión verdadera</t>
   </si>
 </sst>
 </file>
@@ -17279,8 +17292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17485,13 +17498,13 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -17523,6 +17536,57 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DBF589-E751-4BFE-B9A9-3A7C54055E9B}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
@@ -17665,7 +17729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/excels/Core/Trad PHB.xlsx
+++ b/excels/Core/Trad PHB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392DF85-9719-4470-881D-0F22E95DB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A383EEE-954F-4C5A-A484-2E2FC795E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -16850,8 +16850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17292,7 +17292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
